--- a/Study 3/Shocks/GCAM/NDC_LTT - 2055.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2055.xlsx
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.07869836610393233</v>
+        <v>0.07869836610393231</v>
       </c>
     </row>
     <row r="7">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002603774778481865</v>
+        <v>0.002603774778481864</v>
       </c>
     </row>
     <row r="15">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4268194597078806</v>
+        <v>0.4268194597078805</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0006314173364539975</v>
+        <v>0.0006314173364539974</v>
       </c>
     </row>
     <row r="27">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1466830947032893</v>
+        <v>0.1466830947032892</v>
       </c>
     </row>
     <row r="35">
